--- a/format.xlsx
+++ b/format.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC 1\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\tool_dahua\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63BC0925-3281-4F0D-AEFA-4BA77D90A910}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB9B7CEF-1738-425E-B9C8-FDB93F99701E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="4575" windowWidth="20730" windowHeight="11160" xr2:uid="{4A795F6A-D930-4372-8506-A99764D8ED13}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="9">
   <si>
     <t>pin</t>
   </si>
@@ -54,7 +54,13 @@
     <t>pak budi.jpg</t>
   </si>
   <si>
-    <t>bapak budi</t>
+    <t>emp999001</t>
+  </si>
+  <si>
+    <t>emp999002</t>
+  </si>
+  <si>
+    <t>emp999003</t>
   </si>
 </sst>
 </file>
@@ -406,10 +412,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36F77699-B953-45CC-9908-098D0049CED7}">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" activeCellId="1" sqref="B3 C8"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -436,7 +442,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>123</v>
+        <v>999001</v>
       </c>
       <c r="B2" t="s">
         <v>6</v>
@@ -448,6 +454,40 @@
         <v>2</v>
       </c>
       <c r="E2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>999002</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3">
+        <v>123</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>999003</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4">
+        <v>123</v>
+      </c>
+      <c r="D4">
+        <v>2</v>
+      </c>
+      <c r="E4" t="s">
         <v>5</v>
       </c>
     </row>
